--- a/documents/Published/Rotating Tile/RotatingTileByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Rotating Tile/RotatingTileByMAQSoftwareChecklist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18521"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lokes\Desktop\Power BI Build\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAQCustomVisual\documents\Published\Rotating Tile\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331E69B3-0814-4F09-AB30-E661D36F547C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="7965" xr2:uid="{4AB92824-63E9-41E2-A760-A81835BDCF59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4AB92824-63E9-41E2-A760-A81835BDCF59}"/>
   </bookViews>
   <sheets>
     <sheet name="BVTs" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>S no</t>
   </si>
@@ -339,6 +340,21 @@
       </rPr>
       <t> </t>
     </r>
+  </si>
+  <si>
+    <t>Power BI Desktop</t>
+  </si>
+  <si>
+    <t>Internet Explorer</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -549,30 +565,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -583,31 +581,31 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -619,7 +617,51 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,6 +677,1947 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2713783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CBE568C-AEE7-47E8-B537-1C53C168B486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23088600" y="333375"/>
+          <a:ext cx="2362200" cy="2570908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2695907</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2695935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A047E3-E2C7-4203-A0DA-7A517F093721}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27793950" y="304800"/>
+          <a:ext cx="2381582" cy="2581635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2810207</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2714983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A37263E-1A6F-4897-A109-28C94F8F6C31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24574500" y="342900"/>
+          <a:ext cx="2381582" cy="2562583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2695914</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2562561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4688A0BC-1FA6-4E6E-B867-3B84DA9E73DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18040350" y="342900"/>
+          <a:ext cx="2429214" cy="2410161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4772024</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2716567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4053074-B57B-4AEF-8CEF-83F18CC63737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18078449" y="3200401"/>
+          <a:ext cx="4467225" cy="2602266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4724400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2391651</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE245F60-C28C-4CA6-A0D7-EE26F582C592}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22917150" y="3429000"/>
+          <a:ext cx="4600575" cy="2048751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4805603</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2514984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB853CD-3F99-4E38-8BD6-00A08C5BD4D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27774900" y="3505200"/>
+          <a:ext cx="4634153" cy="2095884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4162425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2629972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E44C562-3E9C-47E4-BDA4-F8CBE0C7E8EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32851725" y="3267075"/>
+          <a:ext cx="3829050" cy="2448997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4781550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2686426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970A3FEE-6B2B-41C2-8761-D6EAE0838D08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18030825" y="7262082"/>
+          <a:ext cx="4524375" cy="2520469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4524376</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2537606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679CC7D3-FBF1-4760-B0FE-C14B172E3C3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23107651" y="7162801"/>
+          <a:ext cx="4210050" cy="2470930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4685852</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2419688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9487565-4693-4CA7-BAE9-E9E6B4401F56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28146375" y="7305674"/>
+          <a:ext cx="4142927" cy="2210139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4183352</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2410148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C544599-ED7B-4F79-8CDC-DC17E3B05E7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32775525" y="7343774"/>
+          <a:ext cx="3926177" cy="2162499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4571999</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2506042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1718B46A-0330-4436-B1FC-398627594374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18030824" y="10096500"/>
+          <a:ext cx="4314825" cy="2201242"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4639288</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2495876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9BDFBD8-FB3B-4DFD-9F8D-DC8CA0376ABF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23040975" y="9953625"/>
+          <a:ext cx="4391638" cy="2333951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4725022</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2533944</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F980D7B-8AFB-49E4-873D-5199B3BCFBA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27870150" y="10220325"/>
+          <a:ext cx="4458322" cy="2105319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4553571</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2362477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C0CD9D-11FE-407C-BC29-0E7C1ECF568C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32623125" y="10172700"/>
+          <a:ext cx="4448796" cy="1981477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4715477</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2314866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6593F0F2-72BD-4E70-9539-76224A38524F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18173700" y="12915900"/>
+          <a:ext cx="4315427" cy="2086266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4515448</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2200554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBDAD8C-D3E7-4A42-8255-AF77F1AC65D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23021925" y="12887325"/>
+          <a:ext cx="4286848" cy="2000529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4124813</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2057653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6AD18D4-F591-42D6-924B-68EAEEBA3A21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28232100" y="12934950"/>
+          <a:ext cx="3496163" cy="1810003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4353486</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2095761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D6FA25-91C8-4CD5-BF28-7C858CAE0B03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32851725" y="12915900"/>
+          <a:ext cx="4020111" cy="1867161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4601147</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2057669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992D9E60-6114-40ED-BAA9-721A5747AF85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18278475" y="15297150"/>
+          <a:ext cx="4096322" cy="1924319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4591655</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2143408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B8F9BF-E456-4A70-A15F-2F74546B1A86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23050500" y="15278100"/>
+          <a:ext cx="4334480" cy="2029108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4582113</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2200562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B0F632-DF62-4B48-9202-79F5934CF42C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27974925" y="15306675"/>
+          <a:ext cx="4210638" cy="2057687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4496397</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2048136</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567A86AD-AB10-4ABD-A6EB-40162F1D79C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32737425" y="15344775"/>
+          <a:ext cx="4277322" cy="1867161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4420148</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2124338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C9A3762-671C-4479-A55F-52A7A1C23451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18268950" y="17716500"/>
+          <a:ext cx="3924848" cy="1886213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4096245</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2257729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5178691-2871-400F-8D90-0857F372727B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23345775" y="17554575"/>
+          <a:ext cx="3543795" cy="2181529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4105788</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2210092</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B053DBF-DCBC-4116-BF90-7238F54440DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28032075" y="17592675"/>
+          <a:ext cx="3677163" cy="2095792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4095750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2173539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1849563-294B-4B47-971C-86F45225C43E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32861250" y="17640300"/>
+          <a:ext cx="3752850" cy="2011614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4162425</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2396336</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4153F859-ACC9-4BE4-B518-2B88030B7902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18430875" y="19992976"/>
+          <a:ext cx="3505200" cy="2272510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4391570</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2048138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{933CB720-BDDA-440A-ACDA-28FAAC9EFE8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23279100" y="20031075"/>
+          <a:ext cx="3905795" cy="1886213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4277236</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2286286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4C11A8-7ABB-4933-A750-8C5447629BE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28222575" y="20107275"/>
+          <a:ext cx="3658111" cy="2048161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4077189</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2210073</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5350861A-8E97-4461-8746-A82DE3F1B319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33089850" y="20126325"/>
+          <a:ext cx="3505689" cy="1952898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4248633</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2562547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551D74E9-F844-4C51-B898-DEC3A3F99251}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18564225" y="22621875"/>
+          <a:ext cx="3458058" cy="2305372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4372509</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2229121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D564A7-23AD-4F07-9FAA-ED1271844EA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23336250" y="22650450"/>
+          <a:ext cx="3829584" cy="1943371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4248658</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2238644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB79E19-6467-4501-8B57-193F3C771C32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28213050" y="22679025"/>
+          <a:ext cx="3639058" cy="1924319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4086720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2210069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB2DB9C-C2BB-407C-A442-D18F4B81FAD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33061275" y="22650450"/>
+          <a:ext cx="3543795" cy="1924319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4067679</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2543509</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD364993-60F8-4973-8F00-AA0219C37447}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32975550" y="25212675"/>
+          <a:ext cx="3610479" cy="2391109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4201057</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2210075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDCD9B1-805A-4709-A0F0-384A011EA402}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27993975" y="25298400"/>
+          <a:ext cx="3810532" cy="1971950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3924795</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2305328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF19CEA-8B67-4C4F-967A-E0EBB61E16B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23174325" y="25374600"/>
+          <a:ext cx="3543795" cy="1991003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4620161</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2181464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFBAD0E1-83DD-49D6-823C-6CF22D2D5F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18554700" y="25527000"/>
+          <a:ext cx="3839111" cy="1714739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4714875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2360243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1A75B2-1E00-4E4F-8376-B9550DF367F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18783300" y="27965400"/>
+          <a:ext cx="3705225" cy="2284043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4400551</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2375539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42819FE2-64D2-4EE5-8215-039D4CCCF78C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23441026" y="27965400"/>
+          <a:ext cx="3752850" cy="2299339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4629730</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2391093</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624B7FA5-0B62-4887-889E-B443C75A7282}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28079700" y="28003500"/>
+          <a:ext cx="4153480" cy="2276793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4305872</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2114815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CB1E5E-557A-4481-81B9-3BD44761C0CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32727900" y="28108275"/>
+          <a:ext cx="4096322" cy="1895740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -934,10 +2917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD979CE-A2F4-4A57-BF74-C680FEBF31B0}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,229 +2930,270 @@
     <col min="3" max="3" width="83.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="79.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="82.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="75.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="72.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="73.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="70.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="F1" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="228" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+    <row r="3" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+      <c r="F4" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="F5" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="1:9" ht="228" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
+    <row r="8" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
         <v>4</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" spans="1:9" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+    <row r="11" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="12" spans="1:9" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
         <v>6</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+    <row r="13" spans="1:9" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
+    <row r="14" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1183,258 +3207,258 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="47" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="47" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="13">
         <v>16</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="29" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="29" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="30" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="5">
         <v>17</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
+      <c r="A25" s="5">
         <v>18</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="6" t="s">
         <v>48</v>
       </c>
     </row>
